--- a/Template_for_pressure_data.xlsx
+++ b/Template_for_pressure_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2300" yWindow="0" windowWidth="20500" windowHeight="13980" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="2300" yWindow="0" windowWidth="20500" windowHeight="13980" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Compact_form" sheetId="3" r:id="rId1"/>
@@ -98,21 +98,12 @@
     <t>TA.orig</t>
   </si>
   <si>
-    <t>TA.derived</t>
-  </si>
-  <si>
     <t>Outside air temperature from original record</t>
   </si>
   <si>
     <t>Temperature at barometer from original record</t>
   </si>
   <si>
-    <t>Temperature at barometer from climatology (20CR) or other source</t>
-  </si>
-  <si>
-    <t>Outside air temperature from climatology (20CR) or other source</t>
-  </si>
-  <si>
     <t>mmHg.orig</t>
   </si>
   <si>
@@ -312,6 +303,15 @@
   </si>
   <si>
     <t>inHG</t>
+  </si>
+  <si>
+    <t>TA.20CR</t>
+  </si>
+  <si>
+    <t>Outside air temperature from climatology (20CR 1871-1900)</t>
+  </si>
+  <si>
+    <t>Temperature at barometer from climatology (20CR 1871-1900)</t>
   </si>
 </sst>
 </file>
@@ -880,7 +880,7 @@
         <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -888,13 +888,13 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -902,13 +902,13 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -916,53 +916,53 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -979,58 +979,58 @@
         <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="J11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="M11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O11" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="P11" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="Q11" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="R11" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="S11" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="T11" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="R11" s="1" t="s">
+      <c r="U11" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1067,8 +1067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1164,10 +1164,10 @@
     </row>
     <row r="12" spans="1:2" s="3" customFormat="1">
       <c r="A12" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="3" customFormat="1">
@@ -1183,15 +1183,15 @@
         <v>24</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1199,92 +1199,92 @@
         <v>23</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="90">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="45">
       <c r="A26" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="45">
@@ -1310,7 +1310,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U192"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1324,7 +1324,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>13</v>
@@ -1333,7 +1333,7 @@
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
       <c r="G1" s="10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
@@ -1355,19 +1355,19 @@
         <v>2</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D2"/>
       <c r="E2"/>
       <c r="F2" s="11"/>
       <c r="G2" s="10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
@@ -1388,10 +1388,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
@@ -1400,7 +1400,7 @@
         <v>22</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
@@ -1421,19 +1421,19 @@
         <v>5</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
       <c r="G4" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
@@ -1451,13 +1451,13 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -1480,11 +1480,11 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -1507,11 +1507,11 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
@@ -1534,13 +1534,13 @@
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B8" s="11">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -1563,11 +1563,11 @@
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
@@ -1622,22 +1622,22 @@
         <v>9</v>
       </c>
       <c r="D11" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>86</v>
-      </c>
       <c r="I11" s="10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
@@ -6900,55 +6900,24 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
+      <formula>#REF!=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>#REF!=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>#REF!=""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" stopIfTrue="1" id="{897E811C-67F1-D145-A776-9CB6F74A48AB}">
-            <xm:f>#REF!=""</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor indexed="29"/>
-                  <bgColor indexed="45"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>E2</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="2" stopIfTrue="1" id="{91F0FF47-9AFD-0D44-A683-3EDF116956E6}">
-            <xm:f>#REF!=""</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor indexed="29"/>
-                  <bgColor indexed="45"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G2</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="3" stopIfTrue="1" id="{95CF59F9-E881-6C45-A6AF-854A282F4431}">
-            <xm:f>#REF!=""</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor indexed="29"/>
-                  <bgColor indexed="45"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>D2</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>

--- a/Template_for_pressure_data.xlsx
+++ b/Template_for_pressure_data.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2300" yWindow="0" windowWidth="20500" windowHeight="13980" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="2300" yWindow="0" windowWidth="20500" windowHeight="13980" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Compact_form" sheetId="3" r:id="rId1"/>
-    <sheet name="Long_form" sheetId="1" r:id="rId2"/>
-    <sheet name="Albany_compact" sheetId="4" r:id="rId3"/>
+    <sheet name="Albany_compact" sheetId="4" r:id="rId2"/>
+    <sheet name="Long_form" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="106">
   <si>
     <t>Template for common data format (long form)</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Time.missing</t>
   </si>
   <si>
-    <t>Internal variables</t>
-  </si>
-  <si>
     <t>Station name</t>
   </si>
   <si>
@@ -80,9 +77,6 @@
     <t>Flag indicating whether elevation is known (0) or guessed (1)</t>
   </si>
   <si>
-    <t>Time of measurement (hh:mm)</t>
-  </si>
-  <si>
     <t>Flag indicating whether time is known (0) or guessed (1)</t>
   </si>
   <si>
@@ -98,48 +92,6 @@
     <t>TA.orig</t>
   </si>
   <si>
-    <t>Outside air temperature from original record</t>
-  </si>
-  <si>
-    <t>Temperature at barometer from original record</t>
-  </si>
-  <si>
-    <t>mmHg.orig</t>
-  </si>
-  <si>
-    <t>Barometer reading in mm</t>
-  </si>
-  <si>
-    <t>mmHg.derived</t>
-  </si>
-  <si>
-    <t>mmHg.Tcorrect</t>
-  </si>
-  <si>
-    <t>QFE.orig</t>
-  </si>
-  <si>
-    <t>QFE.derived</t>
-  </si>
-  <si>
-    <t>Station pressure in hPa reduced to 0 deg. C from original record</t>
-  </si>
-  <si>
-    <t>Station pressure in hPa reduced to 0 deg. C derived from original record</t>
-  </si>
-  <si>
-    <t>QFF.orig</t>
-  </si>
-  <si>
-    <t>Pressure at sea level, reduced to 0 deg. C from original record</t>
-  </si>
-  <si>
-    <t>QFF.derived</t>
-  </si>
-  <si>
-    <t>Pressure at sea level reduced to 0 deg. C derived from original record</t>
-  </si>
-  <si>
     <t>Comments, metadata</t>
   </si>
   <si>
@@ -149,15 +101,6 @@
     <t>Date and time in UTC (yyyy-mm-dd hh:mm:ss)</t>
   </si>
   <si>
-    <t>QFE.Tcorrect</t>
-  </si>
-  <si>
-    <t>Barometer reading in mm derived from original record</t>
-  </si>
-  <si>
-    <t>Flag indicating whether barometer reading is reduced to 0 deg. C; Reading not corrected (0), reading corrected with original temperature at barometer (1), reading corrected with original reading of outside air (2), reading corrected with derived temperature at barometer (3), reading corrected with derived temperature of outside air (4)</t>
-  </si>
-  <si>
     <t>Time1</t>
   </si>
   <si>
@@ -278,15 +221,6 @@
     <t>Albany</t>
   </si>
   <si>
-    <t>QFF.Tcorrect</t>
-  </si>
-  <si>
-    <t>Flag for temperature correction of QFE (as mmHg)</t>
-  </si>
-  <si>
-    <t>Flag for temperature correction from QFF to QFE: Not correccted (0), using observed outside air temperature (1), using derived outside air temperature (2)</t>
-  </si>
-  <si>
     <t>Tcorr</t>
   </si>
   <si>
@@ -312,13 +246,106 @@
   </si>
   <si>
     <t>Temperature at barometer from climatology (20CR 1871-1900)</t>
+  </si>
+  <si>
+    <t>mmHg</t>
+  </si>
+  <si>
+    <t>P, P.1, P.2, P.3</t>
+  </si>
+  <si>
+    <t>Barometer reading in original units</t>
+  </si>
+  <si>
+    <t>Barometer reading in mm (derived if different)</t>
+  </si>
+  <si>
+    <t>QFE</t>
+  </si>
+  <si>
+    <t>Station pressure in hPa reduced to 0 deg. C</t>
+  </si>
+  <si>
+    <t>QFE.flag</t>
+  </si>
+  <si>
+    <t>QFF</t>
+  </si>
+  <si>
+    <t>Pressure at sea level in hPa</t>
+  </si>
+  <si>
+    <t>QFF.flag</t>
+  </si>
+  <si>
+    <t>Flag indicating how QFF was computed: 0 missing; 1 from original record; 2 reduced with in-situ outside air temperature; 3 reduced with 20CR climatology (1871-1900)</t>
+  </si>
+  <si>
+    <t>TP.20CR</t>
+  </si>
+  <si>
+    <t>Outside air temperature in original units (or parts thereof)</t>
+  </si>
+  <si>
+    <t>TA, TA.1, TA.2</t>
+  </si>
+  <si>
+    <t>TP, TP.1, TP.2</t>
+  </si>
+  <si>
+    <t>Temperature at barometer in original units (or parts thereof)</t>
+  </si>
+  <si>
+    <t>Units of outside air temperature in original record</t>
+  </si>
+  <si>
+    <t>Units of temperature at barometer in original record</t>
+  </si>
+  <si>
+    <t>Outside air temperature from original record in deg. C</t>
+  </si>
+  <si>
+    <t>Temperature at barometer from original record in deg. C</t>
+  </si>
+  <si>
+    <t>Units of pressure reading in original record</t>
+  </si>
+  <si>
+    <t>P.orig</t>
+  </si>
+  <si>
+    <t>Station pressure in hPa (from mmHg) corrected for local gravity (but not reduced to 0 deg. C)</t>
+  </si>
+  <si>
+    <t>Local.date</t>
+  </si>
+  <si>
+    <t>Date and time (yyyy-mm-dd hh:mm:ss)</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Time of measurement converted to hh:mm</t>
+  </si>
+  <si>
+    <t>Time from original record</t>
+  </si>
+  <si>
+    <t>Additional variables in original file</t>
+  </si>
+  <si>
+    <t>Are pressure readings temperature corrected? 0 no; 1 yes (indicate to what reference in comments)</t>
+  </si>
+  <si>
+    <t>Flag indicating how QFE was computed: 0 missing; 1 from original record; 2 reduced to 0º C with temperature at barometer; 3 reduced to 0º C with in-situ outside air temperature; 4 reduced to 0º C with 20CR climatology (1871-1900)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -378,6 +405,19 @@
       <name val="Sans"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -396,7 +436,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="39">
+  <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -436,8 +476,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -466,8 +512,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="39">
+  <cellStyles count="45">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -487,6 +538,9 @@
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -506,6 +560,9 @@
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
@@ -877,10 +934,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -888,13 +945,13 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -902,13 +959,13 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -916,53 +973,53 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="H4" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="1" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="1" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="1" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -979,58 +1036,58 @@
         <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="U11" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1064,249 +1121,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B28"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="24.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="58.33203125" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="3" customFormat="1">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="3" customFormat="1">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="3" customFormat="1">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" s="3" customFormat="1">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" s="3" customFormat="1">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" s="3" customFormat="1">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" s="3" customFormat="1">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" s="3" customFormat="1">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" s="3" customFormat="1">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" s="3" customFormat="1">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" s="3" customFormat="1">
-      <c r="A12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" s="3" customFormat="1">
-      <c r="A13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="90">
-      <c r="A20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="30">
-      <c r="A22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="45">
-      <c r="A26" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="45">
-      <c r="A28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U192"/>
   <sheetViews>
@@ -1324,16 +1138,16 @@
         <v>1</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
       <c r="G1" s="10" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
@@ -1355,19 +1169,19 @@
         <v>2</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="D2"/>
       <c r="E2"/>
       <c r="F2" s="11"/>
       <c r="G2" s="10" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
@@ -1388,19 +1202,19 @@
         <v>3</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
       <c r="G3" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
@@ -1421,19 +1235,19 @@
         <v>5</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
       <c r="G4" s="10" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
@@ -1451,13 +1265,13 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="10" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -1480,11 +1294,11 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="10" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -1507,11 +1321,11 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="10" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
@@ -1534,13 +1348,13 @@
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="10" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="B8" s="11">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -1563,11 +1377,11 @@
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="10" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="11" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
@@ -1622,22 +1436,22 @@
         <v>9</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="G11" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="10" t="s">
         <v>45</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>64</v>
       </c>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
@@ -6923,4 +6737,300 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="24.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="90.6640625" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="18" customFormat="1" ht="18">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17"/>
+    </row>
+    <row r="2" spans="1:2" s="18" customFormat="1" ht="18">
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+    </row>
+    <row r="3" spans="1:2" s="3" customFormat="1">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="3" customFormat="1">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="3" customFormat="1">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="3" customFormat="1">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="3" customFormat="1">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="3" customFormat="1">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" s="3" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="3" customFormat="1">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" s="3" customFormat="1">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" s="3" customFormat="1">
+      <c r="A12" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" s="3" customFormat="1">
+      <c r="A13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" s="3" customFormat="1">
+      <c r="A14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" s="3" customFormat="1">
+      <c r="A15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" s="3" customFormat="1">
+      <c r="A16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="45">
+      <c r="A23" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="30">
+      <c r="A25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" s="3" customFormat="1">
+      <c r="A26" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" s="3" customFormat="1">
+      <c r="A27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30">
+      <c r="A35" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>